--- a/TestData/Program.xlsx
+++ b/TestData/Program.xlsx
@@ -4,24 +4,200 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29380" windowHeight="14820"/>
+    <workbookView windowWidth="29360" windowHeight="14820" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GET_PROGRAMID" sheetId="1" r:id="rId1"/>
+    <sheet name="DELETE_PROGRAMID" sheetId="2" r:id="rId2"/>
+    <sheet name="DELETE_PROGRAMNAME" sheetId="3" r:id="rId3"/>
+    <sheet name="POST_PROGRAM" sheetId="4" r:id="rId4"/>
+    <sheet name="PUT_PROGRAMID" sheetId="5" r:id="rId5"/>
+    <sheet name="PUT_PROGRAMNAME" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+  <si>
+    <t>Program Id</t>
+  </si>
+  <si>
+    <t>Program Name</t>
+  </si>
+  <si>
+    <t>Jan23-CRUDInterfacingNinjas-SDET-20-161610335279400</t>
+  </si>
+  <si>
+    <t>JAn23-NinjaSurvivors1-SDET-094-1673846904613</t>
+  </si>
+  <si>
+    <t>JAn-NinjaSurvivors2-SDET-094-1673846904613</t>
+  </si>
+  <si>
+    <t>programName</t>
+  </si>
+  <si>
+    <t>programDescription</t>
+  </si>
+  <si>
+    <t>programStatus</t>
+  </si>
+  <si>
+    <t>Jan23-NinjaMavericks-SDET-8</t>
+  </si>
+  <si>
+    <t>API Testing</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>After Initialize the header send POST Request with the New programName,programDescription,programStatus</t>
+  </si>
+  <si>
+    <t>After Initialize the header send POST Request with the excisting programName,programDescription,programStatus</t>
+  </si>
+  <si>
+    <t>LMS-Hackathon</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After Initialize the header send POST Request with the New programDescription,programStatus </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>except programName</t>
+    </r>
+  </si>
+  <si>
+    <t>Jan23-NinjaMavericks-SDET-8-001</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After Initialize the header send POST Request with the New programName,programStatus </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>except programDescription</t>
+    </r>
+  </si>
+  <si>
+    <t>Jan23-NinjaMavericks-SDET-8-002</t>
+  </si>
+  <si>
+    <t>LMS-Hackathon Jan23</t>
+  </si>
+  <si>
+    <t>After Initialize the header send POST Request  with the New programName,programDescription, except programStatus</t>
+  </si>
+  <si>
+    <t>programId</t>
+  </si>
+  <si>
+    <t>SQLsdet89</t>
+  </si>
+  <si>
+    <t>PostgreSql</t>
+  </si>
+  <si>
+    <r>
+      <t>After Initialize the header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> send PUT request with updated data in the needed field</t>
+    </r>
+  </si>
+  <si>
+    <t>SQLsdet90</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After Initialize the header send PUT request with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>non-existing program ID</t>
+    </r>
+  </si>
+  <si>
+    <t>Progr 15</t>
+  </si>
+  <si>
+    <t>Jva is simple but Powerful</t>
+  </si>
+  <si>
+    <r>
+      <t>After Initialize the header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Send PUT request with updated programName &amp; programDiscription</t>
+    </r>
+  </si>
+  <si>
+    <t>Programing2</t>
+  </si>
+  <si>
+    <t>Learn API</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After Initialize the header Send PUT request with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Invalid program Name</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,6 +206,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -40,6 +240,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -62,7 +269,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -70,30 +277,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,67 +300,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -201,37 +409,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,85 +547,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,37 +571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,17 +639,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -459,9 +656,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,114 +673,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,42 +798,60 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,14 +1173,342 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>1304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>5171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="28.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="17.8125" customWidth="1"/>
+    <col min="3" max="3" width="13.5625" customWidth="1"/>
+    <col min="4" max="4" width="16.921875" customWidth="1"/>
+    <col min="5" max="5" width="29.8125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="14.8" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="14.8" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="2:5">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="29.8125" customWidth="1"/>
+    <col min="3" max="3" width="17.8125" customWidth="1"/>
+    <col min="4" max="4" width="13.5625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="16" spans="1:7">
+      <c r="A2">
+        <v>7025</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="16" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.0625" customWidth="1"/>
+    <col min="2" max="2" width="23.3125" customWidth="1"/>
+    <col min="3" max="3" width="13.5625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="16" spans="1:6">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" ht="16" spans="1:6">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
